--- a/data/data_knn.xlsx
+++ b/data/data_knn.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\OneDrive - Industrial University of HoChiMinh City\TEACHING\IUH\IUH.PTDL\LT\LT-PTDL-new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\OneDrive - Industrial University of HoChiMinh City\TEACHING\IUH\IUH.PTDL\Lesson\LT-PTDL-new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44308FB5-F718-4E6C-84D9-7E2744206FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716510B5-C975-41A5-971E-2BEBA392A54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{A1B94B9F-045F-46CF-9EA2-7D69EA0C95DF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{A1B94B9F-045F-46CF-9EA2-7D69EA0C95DF}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="5-NN" sheetId="3" r:id="rId2"/>
+    <sheet name="on-Test" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
   <si>
     <t>t_i</t>
   </si>
@@ -84,20 +85,20 @@
     <t>result</t>
   </si>
   <si>
-    <t>d</t>
-  </si>
-  <si>
     <t>Predicted</t>
   </si>
   <si>
     <t>result (Actual)</t>
+  </si>
+  <si>
+    <t>distance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,8 +233,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -411,12 +420,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -582,8 +585,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -959,10 +962,211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C2D33B1-90B4-4354-956B-0ACEBCEFC5F7}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>145</v>
+      </c>
+      <c r="C2">
+        <v>233</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>130</v>
+      </c>
+      <c r="C3">
+        <v>250</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>130</v>
+      </c>
+      <c r="C4">
+        <v>204</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>130</v>
+      </c>
+      <c r="C5">
+        <v>254</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>140</v>
+      </c>
+      <c r="C6">
+        <v>203</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>130</v>
+      </c>
+      <c r="C7">
+        <v>256</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>140</v>
+      </c>
+      <c r="C8">
+        <v>294</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>120</v>
+      </c>
+      <c r="C9">
+        <v>263</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>172</v>
+      </c>
+      <c r="C10">
+        <v>199</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>150</v>
+      </c>
+      <c r="C11">
+        <v>168</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>120</v>
+      </c>
+      <c r="C12">
+        <v>229</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>140</v>
+      </c>
+      <c r="C13">
+        <v>268</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29775048-3A5A-4D4C-B10D-6FC340ED32FD}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A13" activeCellId="4" sqref="A2:XFD2 A4:XFD4 A9:XFD9 A10:XFD10 A13:XFD13"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,7 +1189,7 @@
         <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1001,7 +1205,7 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <f>SQRT((150-B2)*(150-B2)+(200-C2)*(200-C2))</f>
         <v>33.376638536557273</v>
       </c>
@@ -1019,7 +1223,7 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <f t="shared" ref="F3:F13" si="0">SQRT((150-B3)*(150-B3)+(200-C3)*(200-C3))</f>
         <v>53.851648071345039</v>
       </c>
@@ -1037,7 +1241,7 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <f t="shared" si="0"/>
         <v>20.396078054371138</v>
       </c>
@@ -1055,7 +1259,7 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <f t="shared" si="0"/>
         <v>57.584720195551874</v>
       </c>
@@ -1073,7 +1277,7 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <f t="shared" si="0"/>
         <v>10.440306508910551</v>
       </c>
@@ -1091,7 +1295,7 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <f t="shared" si="0"/>
         <v>59.464274989274024</v>
       </c>
@@ -1109,7 +1313,7 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <f t="shared" si="0"/>
         <v>94.530418384771792</v>
       </c>
@@ -1127,7 +1331,7 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <f t="shared" si="0"/>
         <v>69.778220097678044</v>
       </c>
@@ -1145,7 +1349,7 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <f t="shared" si="0"/>
         <v>22.022715545545239</v>
       </c>
@@ -1163,7 +1367,7 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
@@ -1181,7 +1385,7 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <f t="shared" si="0"/>
         <v>41.725292090050132</v>
       </c>
@@ -1199,7 +1403,7 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <f t="shared" si="0"/>
         <v>68.731361109758325</v>
       </c>
@@ -1209,12 +1413,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D34116-8D7B-4C44-AD9C-1858F05A4DE8}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1233,10 +1437,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1252,79 +1456,79 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C3">
-        <v>204</v>
+        <v>268</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>120</v>
+        <v>172</v>
       </c>
       <c r="C4">
-        <v>263</v>
+        <v>199</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="C5">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="C6">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
